--- a/data/pca/factorExposure/factorExposure_2009-01-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01627842539267315</v>
+        <v>0.01508601291245573</v>
       </c>
       <c r="C2">
-        <v>-0.01063587826505081</v>
+        <v>0.0122332257271401</v>
       </c>
       <c r="D2">
-        <v>-0.01493209255020949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0142129908688827</v>
+      </c>
+      <c r="E2">
+        <v>0.0004283973386194416</v>
+      </c>
+      <c r="F2">
+        <v>0.008645274293356049</v>
+      </c>
+      <c r="G2">
+        <v>-0.0171975542715329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08127634411141542</v>
+        <v>0.08371164485659682</v>
       </c>
       <c r="C4">
-        <v>-0.08063802291617354</v>
+        <v>0.08744484716363495</v>
       </c>
       <c r="D4">
-        <v>0.06575107710188441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06666344681947656</v>
+      </c>
+      <c r="E4">
+        <v>-0.006476685892696668</v>
+      </c>
+      <c r="F4">
+        <v>0.03772830634874937</v>
+      </c>
+      <c r="G4">
+        <v>-0.03174332302104563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003084067747640989</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002039832298623892</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.001502453219049011</v>
+      </c>
+      <c r="E5">
+        <v>0.00290379958245453</v>
+      </c>
+      <c r="F5">
+        <v>-0.003029248467556655</v>
+      </c>
+      <c r="G5">
+        <v>0.00237298419997771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1681790016901457</v>
+        <v>0.1701899790605021</v>
       </c>
       <c r="C6">
-        <v>0.01803661990038671</v>
+        <v>-0.009531037849827272</v>
       </c>
       <c r="D6">
-        <v>0.05621945414026053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05758187554175904</v>
+      </c>
+      <c r="E6">
+        <v>-0.02620225091836744</v>
+      </c>
+      <c r="F6">
+        <v>-0.05587482155060717</v>
+      </c>
+      <c r="G6">
+        <v>0.01042555464495771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05533009195304067</v>
+        <v>0.05932975283322286</v>
       </c>
       <c r="C7">
-        <v>-0.05993319554389576</v>
+        <v>0.06435191368753666</v>
       </c>
       <c r="D7">
-        <v>0.04681782970943964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05343871259689445</v>
+      </c>
+      <c r="E7">
+        <v>-0.04188658523656057</v>
+      </c>
+      <c r="F7">
+        <v>0.0674258578050719</v>
+      </c>
+      <c r="G7">
+        <v>-0.04439288052728661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05422813091764346</v>
+        <v>0.05091259500350419</v>
       </c>
       <c r="C8">
-        <v>-0.04431271889293679</v>
+        <v>0.0456848541724138</v>
       </c>
       <c r="D8">
-        <v>-0.02258000625313661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02441684305660796</v>
+      </c>
+      <c r="E8">
+        <v>0.02391267426724461</v>
+      </c>
+      <c r="F8">
+        <v>0.04670753924550346</v>
+      </c>
+      <c r="G8">
+        <v>0.001013934428113689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06089778241099018</v>
+        <v>0.06434826762196343</v>
       </c>
       <c r="C9">
-        <v>-0.08761742829085742</v>
+        <v>0.0919054232083627</v>
       </c>
       <c r="D9">
-        <v>0.09205479892610798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08900201185812928</v>
+      </c>
+      <c r="E9">
+        <v>-0.01282709798923663</v>
+      </c>
+      <c r="F9">
+        <v>0.06407139907546458</v>
+      </c>
+      <c r="G9">
+        <v>-0.006404876354377824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1098099711733962</v>
+        <v>0.101783896990455</v>
       </c>
       <c r="C10">
-        <v>0.1428153134537728</v>
+        <v>-0.1353230443864094</v>
       </c>
       <c r="D10">
-        <v>-0.1058101439540206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09635679423961843</v>
+      </c>
+      <c r="E10">
+        <v>0.007026781974813804</v>
+      </c>
+      <c r="F10">
+        <v>0.03514327669311619</v>
+      </c>
+      <c r="G10">
+        <v>0.01158639055779435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07883460114858515</v>
+        <v>0.07685130154469121</v>
       </c>
       <c r="C11">
-        <v>-0.129396864498238</v>
+        <v>0.1297469650942008</v>
       </c>
       <c r="D11">
-        <v>0.0598541357902408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05168343833417313</v>
+      </c>
+      <c r="E11">
+        <v>0.01842126578207951</v>
+      </c>
+      <c r="F11">
+        <v>0.07570280827083442</v>
+      </c>
+      <c r="G11">
+        <v>-0.00760414187663542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08261557645825877</v>
+        <v>0.07864433124010999</v>
       </c>
       <c r="C12">
-        <v>-0.149352836939689</v>
+        <v>0.1509498762918906</v>
       </c>
       <c r="D12">
-        <v>0.0633631796508413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.06003679955677175</v>
+      </c>
+      <c r="E12">
+        <v>0.01036439112296556</v>
+      </c>
+      <c r="F12">
+        <v>0.08069849668641306</v>
+      </c>
+      <c r="G12">
+        <v>-0.0118049262499612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04222443044673582</v>
+        <v>0.04257270634992821</v>
       </c>
       <c r="C13">
-        <v>-0.06832404349958901</v>
+        <v>0.07497007078014081</v>
       </c>
       <c r="D13">
-        <v>0.03256987248204636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03177027452079245</v>
+      </c>
+      <c r="E13">
+        <v>-0.004883504692166754</v>
+      </c>
+      <c r="F13">
+        <v>0.07482025093065728</v>
+      </c>
+      <c r="G13">
+        <v>-0.01369263384399311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02024386474308297</v>
+        <v>0.02313283351682593</v>
       </c>
       <c r="C14">
-        <v>-0.04515638757980486</v>
+        <v>0.04515751779649193</v>
       </c>
       <c r="D14">
-        <v>0.05332285495380858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04941779319583606</v>
+      </c>
+      <c r="E14">
+        <v>0.01401089678772763</v>
+      </c>
+      <c r="F14">
+        <v>0.07843825290276736</v>
+      </c>
+      <c r="G14">
+        <v>0.002491866993909455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03137415712662237</v>
+        <v>0.03362228940052953</v>
       </c>
       <c r="C15">
-        <v>-0.0562999414413949</v>
+        <v>0.05572223735345787</v>
       </c>
       <c r="D15">
-        <v>0.04575581050305533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04137011651822752</v>
+      </c>
+      <c r="E15">
+        <v>-0.01105742106319797</v>
+      </c>
+      <c r="F15">
+        <v>0.03324642221726606</v>
+      </c>
+      <c r="G15">
+        <v>0.01010604141223458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05760615345373165</v>
+        <v>0.05768485113694034</v>
       </c>
       <c r="C16">
-        <v>-0.1452651840099183</v>
+        <v>0.145616717141285</v>
       </c>
       <c r="D16">
-        <v>0.07333102512022692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06530636424491537</v>
+      </c>
+      <c r="E16">
+        <v>0.03489494924461411</v>
+      </c>
+      <c r="F16">
+        <v>0.0737532075073993</v>
+      </c>
+      <c r="G16">
+        <v>-0.0115087982628353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005304135347034433</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004429406049819641</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>6.486380960567098e-05</v>
+      </c>
+      <c r="E17">
+        <v>0.009162805396953501</v>
+      </c>
+      <c r="F17">
+        <v>-0.005940445380861135</v>
+      </c>
+      <c r="G17">
+        <v>0.01468031132031567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03638114056897359</v>
+        <v>0.05165026330454237</v>
       </c>
       <c r="C18">
-        <v>-0.04625991224650094</v>
+        <v>0.04162586552963324</v>
       </c>
       <c r="D18">
-        <v>-0.002817430356608836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.008707627990902248</v>
+      </c>
+      <c r="E18">
+        <v>0.003839959119425775</v>
+      </c>
+      <c r="F18">
+        <v>-0.05056981658946579</v>
+      </c>
+      <c r="G18">
+        <v>0.01294861135955616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05637539856070752</v>
+        <v>0.05652233708147298</v>
       </c>
       <c r="C20">
-        <v>-0.0949744847787799</v>
+        <v>0.09415477175807536</v>
       </c>
       <c r="D20">
-        <v>0.08254077449831355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07751019591939587</v>
+      </c>
+      <c r="E20">
+        <v>0.01646989977514039</v>
+      </c>
+      <c r="F20">
+        <v>0.07296795161882527</v>
+      </c>
+      <c r="G20">
+        <v>0.002230425261197439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04386769452882659</v>
+        <v>0.04532006035451577</v>
       </c>
       <c r="C21">
-        <v>-0.05955885882293948</v>
+        <v>0.05766038090577052</v>
       </c>
       <c r="D21">
-        <v>0.005947338829313719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.003890024607630887</v>
+      </c>
+      <c r="E21">
+        <v>-0.001674570770244372</v>
+      </c>
+      <c r="F21">
+        <v>0.07195954940484205</v>
+      </c>
+      <c r="G21">
+        <v>-0.02276033495776302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04575772109470946</v>
+        <v>0.0447666713503038</v>
       </c>
       <c r="C22">
-        <v>-0.02680020129687125</v>
+        <v>0.02976370554792231</v>
       </c>
       <c r="D22">
-        <v>-0.01285233116841381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02905207225636038</v>
+      </c>
+      <c r="E22">
+        <v>0.1321796676263393</v>
+      </c>
+      <c r="F22">
+        <v>-0.04601953944487786</v>
+      </c>
+      <c r="G22">
+        <v>-0.002196071381336117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0457671523589414</v>
+        <v>0.04477471127462963</v>
       </c>
       <c r="C23">
-        <v>-0.02679241197651745</v>
+        <v>0.02975698814749585</v>
       </c>
       <c r="D23">
-        <v>-0.01287716037214549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02907910570451163</v>
+      </c>
+      <c r="E23">
+        <v>0.1322165447649396</v>
+      </c>
+      <c r="F23">
+        <v>-0.04601378260093422</v>
+      </c>
+      <c r="G23">
+        <v>-0.002158255234127038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0667672968309652</v>
+        <v>0.06617201875061932</v>
       </c>
       <c r="C24">
-        <v>-0.1367596671059016</v>
+        <v>0.1356186112220799</v>
       </c>
       <c r="D24">
-        <v>0.06391456980964927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05810137196647473</v>
+      </c>
+      <c r="E24">
+        <v>0.01322119372465776</v>
+      </c>
+      <c r="F24">
+        <v>0.07360673959704499</v>
+      </c>
+      <c r="G24">
+        <v>-0.01161337499092488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07225735136126203</v>
+        <v>0.07070806330487839</v>
       </c>
       <c r="C25">
-        <v>-0.1213439533236798</v>
+        <v>0.1202866206044574</v>
       </c>
       <c r="D25">
-        <v>0.0469412721376249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03902318260239666</v>
+      </c>
+      <c r="E25">
+        <v>-0.01466336464001187</v>
+      </c>
+      <c r="F25">
+        <v>0.0893154325271821</v>
+      </c>
+      <c r="G25">
+        <v>-0.0168852225085373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05649778534752363</v>
+        <v>0.06072036974571276</v>
       </c>
       <c r="C26">
-        <v>-0.06854444084183953</v>
+        <v>0.06923948365373171</v>
       </c>
       <c r="D26">
-        <v>0.02909510779865409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02406869561104951</v>
+      </c>
+      <c r="E26">
+        <v>0.01445494208069895</v>
+      </c>
+      <c r="F26">
+        <v>0.07847348442943043</v>
+      </c>
+      <c r="G26">
+        <v>0.001331246415809412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.170853008357365</v>
+        <v>0.1733818371867508</v>
       </c>
       <c r="C28">
-        <v>0.2278111520785739</v>
+        <v>-0.2285398278317582</v>
       </c>
       <c r="D28">
-        <v>-0.02336795674045274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03029491436291948</v>
+      </c>
+      <c r="E28">
+        <v>-0.0576579133614317</v>
+      </c>
+      <c r="F28">
+        <v>0.1380304260620649</v>
+      </c>
+      <c r="G28">
+        <v>0.003089432491083696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02414022192225303</v>
+        <v>0.02677293463404304</v>
       </c>
       <c r="C29">
-        <v>-0.04682651603019705</v>
+        <v>0.04450335011664844</v>
       </c>
       <c r="D29">
-        <v>0.01388356314055466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01048764036286906</v>
+      </c>
+      <c r="E29">
+        <v>0.02954705133470274</v>
+      </c>
+      <c r="F29">
+        <v>0.07385906930121217</v>
+      </c>
+      <c r="G29">
+        <v>-0.0009734012153963351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03966390680189434</v>
+        <v>0.04174911248372637</v>
       </c>
       <c r="C30">
-        <v>-0.06932541873574231</v>
+        <v>0.07665272962948887</v>
       </c>
       <c r="D30">
-        <v>0.1213170042619075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1059233985725039</v>
+      </c>
+      <c r="E30">
+        <v>-0.0690437436779634</v>
+      </c>
+      <c r="F30">
+        <v>0.08440192675438124</v>
+      </c>
+      <c r="G30">
+        <v>0.01903349079942614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05206712106145906</v>
+        <v>0.05156705079265121</v>
       </c>
       <c r="C31">
-        <v>-0.03288651700292947</v>
+        <v>0.03602792222144909</v>
       </c>
       <c r="D31">
-        <v>0.01424394696730655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01789610395731688</v>
+      </c>
+      <c r="E31">
+        <v>0.03536667244532197</v>
+      </c>
+      <c r="F31">
+        <v>0.01390502290021352</v>
+      </c>
+      <c r="G31">
+        <v>-0.02483972268533715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04334866700900426</v>
+        <v>0.04772640021233463</v>
       </c>
       <c r="C32">
-        <v>-0.04925310328477103</v>
+        <v>0.04600133165552364</v>
       </c>
       <c r="D32">
-        <v>0.0218381861448032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02255046958065424</v>
+      </c>
+      <c r="E32">
+        <v>0.02777089614659087</v>
+      </c>
+      <c r="F32">
+        <v>0.004785834448316289</v>
+      </c>
+      <c r="G32">
+        <v>0.007048484248351691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07844694229404693</v>
+        <v>0.08214202716299981</v>
       </c>
       <c r="C33">
-        <v>-0.1063676681378604</v>
+        <v>0.1168972547888519</v>
       </c>
       <c r="D33">
-        <v>0.06700098628613561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06924583392940195</v>
+      </c>
+      <c r="E33">
+        <v>0.01926360039463174</v>
+      </c>
+      <c r="F33">
+        <v>0.07738309303551923</v>
+      </c>
+      <c r="G33">
+        <v>-0.004529347409442316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05483003477317109</v>
+        <v>0.05482223659141285</v>
       </c>
       <c r="C34">
-        <v>-0.1224251120450329</v>
+        <v>0.1246154895937342</v>
       </c>
       <c r="D34">
-        <v>0.08226646452312256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06813116623090414</v>
+      </c>
+      <c r="E34">
+        <v>-0.02097876338281499</v>
+      </c>
+      <c r="F34">
+        <v>0.08866540868616686</v>
+      </c>
+      <c r="G34">
+        <v>0.01799444013027419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02696101730243031</v>
+        <v>0.02946746176759492</v>
       </c>
       <c r="C35">
-        <v>-0.01633153405972662</v>
+        <v>0.01815110906460516</v>
       </c>
       <c r="D35">
-        <v>0.0264181899849354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02286534464927181</v>
+      </c>
+      <c r="E35">
+        <v>0.02302959151834078</v>
+      </c>
+      <c r="F35">
+        <v>0.03369253739675249</v>
+      </c>
+      <c r="G35">
+        <v>0.02707602441397265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02288852313254157</v>
+        <v>0.02725099271034827</v>
       </c>
       <c r="C36">
-        <v>-0.04751505082917718</v>
+        <v>0.04812007472382687</v>
       </c>
       <c r="D36">
-        <v>0.06684633225189304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.05837705092857943</v>
+      </c>
+      <c r="E36">
+        <v>0.01591061509325747</v>
+      </c>
+      <c r="F36">
+        <v>0.03513691349987783</v>
+      </c>
+      <c r="G36">
+        <v>0.07983197798058721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003557718353042728</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006479576751099133</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001016415912949472</v>
+      </c>
+      <c r="E37">
+        <v>0.001789147958931894</v>
+      </c>
+      <c r="F37">
+        <v>0.01031438864565533</v>
+      </c>
+      <c r="G37">
+        <v>-0.006587751200524525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08424412995838799</v>
+        <v>0.07851800523967647</v>
       </c>
       <c r="C39">
-        <v>-0.1525035677562323</v>
+        <v>0.1478875799395049</v>
       </c>
       <c r="D39">
-        <v>0.04637452461186708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03972435212313408</v>
+      </c>
+      <c r="E39">
+        <v>0.01998530803918062</v>
+      </c>
+      <c r="F39">
+        <v>0.1214618650643146</v>
+      </c>
+      <c r="G39">
+        <v>-0.05074570650450982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04636088557519993</v>
+        <v>0.05098624899435886</v>
       </c>
       <c r="C40">
-        <v>-0.06731361858599792</v>
+        <v>0.07244183553289744</v>
       </c>
       <c r="D40">
-        <v>0.01926503043890202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.008784356270706069</v>
+      </c>
+      <c r="E40">
+        <v>0.01046707224329322</v>
+      </c>
+      <c r="F40">
+        <v>0.05232667603855078</v>
+      </c>
+      <c r="G40">
+        <v>0.0407624711402361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02654527239872768</v>
+        <v>0.0283646159212209</v>
       </c>
       <c r="C41">
-        <v>-0.02059012974484808</v>
+        <v>0.0214866567887811</v>
       </c>
       <c r="D41">
-        <v>-0.007441603838336436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.006603311374072845</v>
+      </c>
+      <c r="E41">
+        <v>0.008372417508294195</v>
+      </c>
+      <c r="F41">
+        <v>-0.01170895333441149</v>
+      </c>
+      <c r="G41">
+        <v>0.01271130956545703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04260037289569998</v>
+        <v>0.04206727158009286</v>
       </c>
       <c r="C43">
-        <v>-0.04061011942071751</v>
+        <v>0.03779788836356524</v>
       </c>
       <c r="D43">
-        <v>0.003869921669159276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.001768547297112975</v>
+      </c>
+      <c r="E43">
+        <v>0.03288243992053535</v>
+      </c>
+      <c r="F43">
+        <v>0.01978280636401699</v>
+      </c>
+      <c r="G43">
+        <v>-0.001997805110601479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05639359364373283</v>
+        <v>0.06397305556412299</v>
       </c>
       <c r="C44">
-        <v>-0.07969274987437464</v>
+        <v>0.08609251876616619</v>
       </c>
       <c r="D44">
-        <v>0.280597813143535</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2567351097423879</v>
+      </c>
+      <c r="E44">
+        <v>-0.04874127485795797</v>
+      </c>
+      <c r="F44">
+        <v>0.1693251093350499</v>
+      </c>
+      <c r="G44">
+        <v>0.1664745773495679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000226003301892287</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0003416493396432154</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-0.00148203065449186</v>
+      </c>
+      <c r="E45">
+        <v>-0.001189855309262904</v>
+      </c>
+      <c r="F45">
+        <v>0.0006964234214235814</v>
+      </c>
+      <c r="G45">
+        <v>-0.00507382133043341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02804652721699287</v>
+        <v>0.02779170028891127</v>
       </c>
       <c r="C46">
-        <v>-0.03388192524597454</v>
+        <v>0.03250217732904075</v>
       </c>
       <c r="D46">
-        <v>0.01575882301336757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01385426695106013</v>
+      </c>
+      <c r="E46">
+        <v>0.04617708919738085</v>
+      </c>
+      <c r="F46">
+        <v>0.06353709019814491</v>
+      </c>
+      <c r="G46">
+        <v>-0.03111274283200699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05145706285004334</v>
+        <v>0.05087412236632039</v>
       </c>
       <c r="C47">
-        <v>-0.02218846662970228</v>
+        <v>0.02554528307584136</v>
       </c>
       <c r="D47">
-        <v>-0.01882021713752657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01019547304473228</v>
+      </c>
+      <c r="E47">
+        <v>0.05908245265880694</v>
+      </c>
+      <c r="F47">
+        <v>-0.01409455616569346</v>
+      </c>
+      <c r="G47">
+        <v>-0.03028428263117827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04686293166877462</v>
+        <v>0.05015651382662</v>
       </c>
       <c r="C48">
-        <v>-0.06960159881507308</v>
+        <v>0.06858173618517313</v>
       </c>
       <c r="D48">
-        <v>0.0251052621720986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02225715142173942</v>
+      </c>
+      <c r="E48">
+        <v>-0.01522903317659596</v>
+      </c>
+      <c r="F48">
+        <v>0.05537228489459552</v>
+      </c>
+      <c r="G48">
+        <v>-0.02450220639298839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1943463508144473</v>
+        <v>0.1976702379185171</v>
       </c>
       <c r="C49">
-        <v>0.01144152003783317</v>
+        <v>-0.004868867019816835</v>
       </c>
       <c r="D49">
-        <v>0.02888786661323441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03635678366369022</v>
+      </c>
+      <c r="E49">
+        <v>-0.03416016986721331</v>
+      </c>
+      <c r="F49">
+        <v>-0.05122948884506701</v>
+      </c>
+      <c r="G49">
+        <v>-2.5902984230101e-05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05040704119364121</v>
+        <v>0.0520085750982815</v>
       </c>
       <c r="C50">
-        <v>-0.03067883680978775</v>
+        <v>0.03366299090735508</v>
       </c>
       <c r="D50">
-        <v>0.02231613729221864</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02711289806824269</v>
+      </c>
+      <c r="E50">
+        <v>0.02408396921132287</v>
+      </c>
+      <c r="F50">
+        <v>0.006615310424121121</v>
+      </c>
+      <c r="G50">
+        <v>-0.02433096400262647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1443729912248478</v>
+        <v>0.137737848419968</v>
       </c>
       <c r="C52">
-        <v>-0.03436405437263003</v>
+        <v>0.03427263376070368</v>
       </c>
       <c r="D52">
-        <v>0.05596989803087149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05672230072825693</v>
+      </c>
+      <c r="E52">
+        <v>0.02095921290318475</v>
+      </c>
+      <c r="F52">
+        <v>-0.07112371283570985</v>
+      </c>
+      <c r="G52">
+        <v>-0.03084836317315363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1746621750909312</v>
+        <v>0.165697378396882</v>
       </c>
       <c r="C53">
-        <v>-0.0001048079361382809</v>
+        <v>0.003418792158879372</v>
       </c>
       <c r="D53">
-        <v>0.09685118346285973</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1048980452747373</v>
+      </c>
+      <c r="E53">
+        <v>0.008013072487267089</v>
+      </c>
+      <c r="F53">
+        <v>-0.114294553985619</v>
+      </c>
+      <c r="G53">
+        <v>-0.06239957260545374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01070667886889897</v>
+        <v>0.01426635466865171</v>
       </c>
       <c r="C54">
-        <v>-0.03177168067414579</v>
+        <v>0.03266629961051622</v>
       </c>
       <c r="D54">
-        <v>0.0153025730847752</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01472845644974855</v>
+      </c>
+      <c r="E54">
+        <v>0.02157079558071904</v>
+      </c>
+      <c r="F54">
+        <v>0.04478629562962964</v>
+      </c>
+      <c r="G54">
+        <v>-0.003739744245684129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1210960687863359</v>
+        <v>0.1174997989450534</v>
       </c>
       <c r="C55">
-        <v>-0.005723896891056324</v>
+        <v>0.01177860810513431</v>
       </c>
       <c r="D55">
-        <v>0.06432165118639378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06927557171351004</v>
+      </c>
+      <c r="E55">
+        <v>0.0458419416371337</v>
+      </c>
+      <c r="F55">
+        <v>-0.04026827475613613</v>
+      </c>
+      <c r="G55">
+        <v>-0.06694008801662837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1812879873426563</v>
+        <v>0.1734040070029518</v>
       </c>
       <c r="C56">
-        <v>0.007822074179593234</v>
+        <v>-0.006585522228614791</v>
       </c>
       <c r="D56">
-        <v>0.04406247935465039</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05644963400237552</v>
+      </c>
+      <c r="E56">
+        <v>0.03366710417269623</v>
+      </c>
+      <c r="F56">
+        <v>-0.1513619990952078</v>
+      </c>
+      <c r="G56">
+        <v>-0.06576497485215928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04394899279256257</v>
+        <v>0.04436425965313808</v>
       </c>
       <c r="C58">
-        <v>-0.09559222268564581</v>
+        <v>0.10328653178648</v>
       </c>
       <c r="D58">
-        <v>-0.00103625383425216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.005541052821667341</v>
+      </c>
+      <c r="E58">
+        <v>0.04697428441361863</v>
+      </c>
+      <c r="F58">
+        <v>0.04204844316592966</v>
+      </c>
+      <c r="G58">
+        <v>-0.02418649678332037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1878242050918623</v>
+        <v>0.1907121972799387</v>
       </c>
       <c r="C59">
-        <v>0.1774479249238535</v>
+        <v>-0.1814648584969659</v>
       </c>
       <c r="D59">
-        <v>-0.0818062395325532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.08263425020606857</v>
+      </c>
+      <c r="E59">
+        <v>0.01457972897098476</v>
+      </c>
+      <c r="F59">
+        <v>0.05390604483925084</v>
+      </c>
+      <c r="G59">
+        <v>-0.03790689552658572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2144690923914185</v>
+        <v>0.209174373349238</v>
       </c>
       <c r="C60">
-        <v>-0.004794489052280556</v>
+        <v>0.01202503297321497</v>
       </c>
       <c r="D60">
-        <v>-0.06747269668836614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04709071798469198</v>
+      </c>
+      <c r="E60">
+        <v>0.006648055699839312</v>
+      </c>
+      <c r="F60">
+        <v>-0.2002233018618631</v>
+      </c>
+      <c r="G60">
+        <v>-0.08374042522653011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0648753490547182</v>
+        <v>0.06211320838183393</v>
       </c>
       <c r="C61">
-        <v>-0.1236793070425282</v>
+        <v>0.1213775701314219</v>
       </c>
       <c r="D61">
-        <v>0.03709879140759498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03132896424705206</v>
+      </c>
+      <c r="E61">
+        <v>0.03110738414825429</v>
+      </c>
+      <c r="F61">
+        <v>0.07894672657907699</v>
+      </c>
+      <c r="G61">
+        <v>-0.02443249812254901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1686624179576882</v>
+        <v>0.1649220696006728</v>
       </c>
       <c r="C62">
-        <v>0.01074463738697655</v>
+        <v>-0.007611967569248687</v>
       </c>
       <c r="D62">
-        <v>0.03586795238123237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.05060624026115802</v>
+      </c>
+      <c r="E62">
+        <v>0.0346533770308546</v>
+      </c>
+      <c r="F62">
+        <v>-0.1222468859929335</v>
+      </c>
+      <c r="G62">
+        <v>-0.06073362162037257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03806703409034123</v>
+        <v>0.04313252632989751</v>
       </c>
       <c r="C63">
-        <v>-0.06998055914296769</v>
+        <v>0.07312922786443439</v>
       </c>
       <c r="D63">
-        <v>0.03051208149059433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02515632324525697</v>
+      </c>
+      <c r="E63">
+        <v>0.03086425546651308</v>
+      </c>
+      <c r="F63">
+        <v>0.04861900794070515</v>
+      </c>
+      <c r="G63">
+        <v>0.02426564773750134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1113632246130702</v>
+        <v>0.1095469127049057</v>
       </c>
       <c r="C64">
-        <v>-0.04826508183961546</v>
+        <v>0.05242729644169944</v>
       </c>
       <c r="D64">
-        <v>0.0355551255353386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03787610622994967</v>
+      </c>
+      <c r="E64">
+        <v>0.01418503072556773</v>
+      </c>
+      <c r="F64">
+        <v>-0.03873984058195645</v>
+      </c>
+      <c r="G64">
+        <v>-0.000931124205334948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1562558767112771</v>
+        <v>0.1598800580752575</v>
       </c>
       <c r="C65">
-        <v>0.05951840314359647</v>
+        <v>-0.04928758743881234</v>
       </c>
       <c r="D65">
-        <v>0.04747304121481279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05312723859469285</v>
+      </c>
+      <c r="E65">
+        <v>-0.0131296514957167</v>
+      </c>
+      <c r="F65">
+        <v>-0.01259273122635439</v>
+      </c>
+      <c r="G65">
+        <v>-0.01918041274935469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1020224953160958</v>
+        <v>0.0953161813261732</v>
       </c>
       <c r="C66">
-        <v>-0.1301188910186049</v>
+        <v>0.1301971552695438</v>
       </c>
       <c r="D66">
-        <v>0.04861073296302999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03825853465615479</v>
+      </c>
+      <c r="E66">
+        <v>0.01249044726158896</v>
+      </c>
+      <c r="F66">
+        <v>0.101795720663214</v>
+      </c>
+      <c r="G66">
+        <v>-0.003663905308235731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05837789014232543</v>
+        <v>0.04912750550524909</v>
       </c>
       <c r="C67">
-        <v>-0.08228949856049034</v>
+        <v>0.07546325090836982</v>
       </c>
       <c r="D67">
-        <v>-0.04701159584838892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.04722243437158381</v>
+      </c>
+      <c r="E67">
+        <v>0.08470027521877536</v>
+      </c>
+      <c r="F67">
+        <v>-0.04249916195755047</v>
+      </c>
+      <c r="G67">
+        <v>0.001348810451177228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1394499003410616</v>
+        <v>0.1422276660354299</v>
       </c>
       <c r="C68">
-        <v>0.2453204766764226</v>
+        <v>-0.2483525064031232</v>
       </c>
       <c r="D68">
-        <v>-0.04665887653383499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04909300275899458</v>
+      </c>
+      <c r="E68">
+        <v>-0.1003002827394181</v>
+      </c>
+      <c r="F68">
+        <v>0.1250214742685659</v>
+      </c>
+      <c r="G68">
+        <v>-0.02738469544447565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03872080964026842</v>
+        <v>0.03816523779994846</v>
       </c>
       <c r="C69">
-        <v>-0.01135013248192107</v>
+        <v>0.01356395528251568</v>
       </c>
       <c r="D69">
-        <v>0.009808555887412133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01331397592132697</v>
+      </c>
+      <c r="E69">
+        <v>0.06119315254778429</v>
+      </c>
+      <c r="F69">
+        <v>-0.04544628170550622</v>
+      </c>
+      <c r="G69">
+        <v>0.02338024916005909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07056745769870372</v>
+        <v>0.07164580678760617</v>
       </c>
       <c r="C70">
-        <v>-0.08204513387573811</v>
+        <v>0.07770412923848649</v>
       </c>
       <c r="D70">
-        <v>-0.5157934930032482</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.4093226920902638</v>
+      </c>
+      <c r="E70">
+        <v>0.2168293186081944</v>
+      </c>
+      <c r="F70">
+        <v>-0.3830622670827493</v>
+      </c>
+      <c r="G70">
+        <v>-0.4255009105514358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1625064595117091</v>
+        <v>0.1663392928206401</v>
       </c>
       <c r="C71">
-        <v>0.2520087710202173</v>
+        <v>-0.2520429384860204</v>
       </c>
       <c r="D71">
-        <v>-0.04719931206767625</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.05229897922467419</v>
+      </c>
+      <c r="E71">
+        <v>-0.1093553872875416</v>
+      </c>
+      <c r="F71">
+        <v>0.1256530353650939</v>
+      </c>
+      <c r="G71">
+        <v>-0.02781418658117514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.143899742077113</v>
+        <v>0.1490506822828444</v>
       </c>
       <c r="C72">
-        <v>-0.01071065818147347</v>
+        <v>0.007885484552415957</v>
       </c>
       <c r="D72">
-        <v>0.0731162450694645</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06626926406910576</v>
+      </c>
+      <c r="E72">
+        <v>0.04109626558088975</v>
+      </c>
+      <c r="F72">
+        <v>-0.02709609146064871</v>
+      </c>
+      <c r="G72">
+        <v>0.01214722980532457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1911842027914147</v>
+        <v>0.1991139932246633</v>
       </c>
       <c r="C73">
-        <v>-0.01895831362021256</v>
+        <v>0.02983794454977293</v>
       </c>
       <c r="D73">
-        <v>0.06078303012887013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06880282519017705</v>
+      </c>
+      <c r="E73">
+        <v>0.05573307724375601</v>
+      </c>
+      <c r="F73">
+        <v>-0.1052616677559438</v>
+      </c>
+      <c r="G73">
+        <v>0.01647118598317307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08664958338566553</v>
+        <v>0.08583823027175677</v>
       </c>
       <c r="C74">
-        <v>-0.003793197022862838</v>
+        <v>0.01071965368091064</v>
       </c>
       <c r="D74">
-        <v>0.07494703510560911</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.08130559981978078</v>
+      </c>
+      <c r="E74">
+        <v>0.01850758037332644</v>
+      </c>
+      <c r="F74">
+        <v>-0.06754508909160618</v>
+      </c>
+      <c r="G74">
+        <v>0.003893765977294943</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1240352749835191</v>
+        <v>0.1162577364376196</v>
       </c>
       <c r="C75">
-        <v>-0.01796899524788608</v>
+        <v>0.02129254756422816</v>
       </c>
       <c r="D75">
-        <v>0.05770079776434586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.06060588623160533</v>
+      </c>
+      <c r="E75">
+        <v>0.05596109578989154</v>
+      </c>
+      <c r="F75">
+        <v>-0.06296755083863048</v>
+      </c>
+      <c r="G75">
+        <v>-0.04186711943192141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07331270925146605</v>
+        <v>0.08697307185683004</v>
       </c>
       <c r="C77">
-        <v>-0.1163068415314904</v>
+        <v>0.1147988562837482</v>
       </c>
       <c r="D77">
-        <v>0.06860074390108026</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07683331481625308</v>
+      </c>
+      <c r="E77">
+        <v>-0.01139128864859612</v>
+      </c>
+      <c r="F77">
+        <v>0.084788692953932</v>
+      </c>
+      <c r="G77">
+        <v>-0.1099056278997118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08888926415388325</v>
+        <v>0.09276235802451101</v>
       </c>
       <c r="C78">
-        <v>-0.1267937770838353</v>
+        <v>0.1257717274189784</v>
       </c>
       <c r="D78">
-        <v>0.07875508044989042</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06138367753052606</v>
+      </c>
+      <c r="E78">
+        <v>-0.005392028640275064</v>
+      </c>
+      <c r="F78">
+        <v>0.1222789154925157</v>
+      </c>
+      <c r="G78">
+        <v>-0.08802980991662208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.167801414011174</v>
+        <v>0.1627068575975659</v>
       </c>
       <c r="C79">
-        <v>-0.01729838242631695</v>
+        <v>0.01811658954166461</v>
       </c>
       <c r="D79">
-        <v>0.03027044663191289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03531521323594015</v>
+      </c>
+      <c r="E79">
+        <v>0.03676608273126811</v>
+      </c>
+      <c r="F79">
+        <v>-0.05594935861231788</v>
+      </c>
+      <c r="G79">
+        <v>-0.04251841400305857</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07504036561660286</v>
+        <v>0.07323009431147605</v>
       </c>
       <c r="C80">
-        <v>-0.06069260439673693</v>
+        <v>0.05841032158345771</v>
       </c>
       <c r="D80">
-        <v>0.01219716938788572</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002832026460730371</v>
+      </c>
+      <c r="E80">
+        <v>0.06115841644594118</v>
+      </c>
+      <c r="F80">
+        <v>0.1035844567614564</v>
+      </c>
+      <c r="G80">
+        <v>0.09655570834395971</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1120799700977146</v>
+        <v>0.1054890459129062</v>
       </c>
       <c r="C81">
-        <v>0.01608190828140992</v>
+        <v>-0.01242470556284906</v>
       </c>
       <c r="D81">
-        <v>0.02741144619540703</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03259799509025588</v>
+      </c>
+      <c r="E81">
+        <v>0.06081237981479248</v>
+      </c>
+      <c r="F81">
+        <v>-0.07118299893724454</v>
+      </c>
+      <c r="G81">
+        <v>-0.004674197863856246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1619648970811066</v>
+        <v>0.1582369432763502</v>
       </c>
       <c r="C82">
-        <v>0.0187455652305116</v>
+        <v>-0.01311079026237744</v>
       </c>
       <c r="D82">
-        <v>0.09016523710883638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09816246682311291</v>
+      </c>
+      <c r="E82">
+        <v>-0.001690076493814064</v>
+      </c>
+      <c r="F82">
+        <v>-0.112331566786738</v>
+      </c>
+      <c r="G82">
+        <v>0.003302480476589726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05354964438942848</v>
+        <v>0.04973869064324815</v>
       </c>
       <c r="C83">
-        <v>-0.06068648702079858</v>
+        <v>0.05674429242202629</v>
       </c>
       <c r="D83">
-        <v>-0.0119787939709406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0127095724623623</v>
+      </c>
+      <c r="E83">
+        <v>0.01507501555285036</v>
+      </c>
+      <c r="F83">
+        <v>0.003248221380419215</v>
+      </c>
+      <c r="G83">
+        <v>-0.01509434748747472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05136814518995491</v>
+        <v>0.04881274840870239</v>
       </c>
       <c r="C84">
-        <v>-0.07462236408207068</v>
+        <v>0.07262015103080102</v>
       </c>
       <c r="D84">
-        <v>0.004378773551227734</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.006108450913017907</v>
+      </c>
+      <c r="E84">
+        <v>0.01662179652270203</v>
+      </c>
+      <c r="F84">
+        <v>-0.02195590058457963</v>
+      </c>
+      <c r="G84">
+        <v>-0.03101513344100518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1405361668702855</v>
+        <v>0.1345899103686909</v>
       </c>
       <c r="C85">
-        <v>-0.005983665104021095</v>
+        <v>0.009157165109728325</v>
       </c>
       <c r="D85">
-        <v>0.09046003301953325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09096681562912778</v>
+      </c>
+      <c r="E85">
+        <v>0.0167680865826352</v>
+      </c>
+      <c r="F85">
+        <v>-0.04685228719936375</v>
+      </c>
+      <c r="G85">
+        <v>-0.02744205595175115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08232732747982602</v>
+        <v>0.08051469697147079</v>
       </c>
       <c r="C86">
-        <v>-0.1055179680982026</v>
+        <v>0.1072171157122496</v>
       </c>
       <c r="D86">
-        <v>-0.4818081812984225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.5431781679962945</v>
+      </c>
+      <c r="E86">
+        <v>0.5017355523273865</v>
+      </c>
+      <c r="F86">
+        <v>0.4621029660890916</v>
+      </c>
+      <c r="G86">
+        <v>0.09410461895946969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08886622683405133</v>
+        <v>0.08749570841735231</v>
       </c>
       <c r="C87">
-        <v>-0.08947701102047304</v>
+        <v>0.09020085558044975</v>
       </c>
       <c r="D87">
-        <v>0.05296657957071187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04024762281563372</v>
+      </c>
+      <c r="E87">
+        <v>-0.09942567703297642</v>
+      </c>
+      <c r="F87">
+        <v>0.09698086608067474</v>
+      </c>
+      <c r="G87">
+        <v>0.05379877681007815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06090302198134771</v>
+        <v>0.06035067515538024</v>
       </c>
       <c r="C88">
-        <v>-0.06134013788426101</v>
+        <v>0.06205780100413925</v>
       </c>
       <c r="D88">
-        <v>0.01594676457872206</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01875871740581943</v>
+      </c>
+      <c r="E88">
+        <v>0.01242986787348789</v>
+      </c>
+      <c r="F88">
+        <v>-0.02934776882304176</v>
+      </c>
+      <c r="G88">
+        <v>-0.01261292564159752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1485477935743645</v>
+        <v>0.1507267726061481</v>
       </c>
       <c r="C89">
-        <v>0.1930928028294206</v>
+        <v>-0.2047122755324735</v>
       </c>
       <c r="D89">
-        <v>-0.02301517226921258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03423952191986345</v>
+      </c>
+      <c r="E89">
+        <v>-0.08677068136539791</v>
+      </c>
+      <c r="F89">
+        <v>0.09650331178412844</v>
+      </c>
+      <c r="G89">
+        <v>0.002053131896822991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1767931879427752</v>
+        <v>0.1836171281812193</v>
       </c>
       <c r="C90">
-        <v>0.22770922724988</v>
+        <v>-0.2358188627662808</v>
       </c>
       <c r="D90">
-        <v>-0.06451765274672186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.07311595867535978</v>
+      </c>
+      <c r="E90">
+        <v>-0.13462564951272</v>
+      </c>
+      <c r="F90">
+        <v>0.1449013693954566</v>
+      </c>
+      <c r="G90">
+        <v>-0.01038434010336627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1271310553202305</v>
+        <v>0.1212830120135011</v>
       </c>
       <c r="C91">
-        <v>0.02276061909913734</v>
+        <v>-0.02044691096298517</v>
       </c>
       <c r="D91">
-        <v>0.02560418681714006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02729320920673798</v>
+      </c>
+      <c r="E91">
+        <v>0.09637386945796923</v>
+      </c>
+      <c r="F91">
+        <v>-0.1046868512616712</v>
+      </c>
+      <c r="G91">
+        <v>0.008783702528935565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1712631842295934</v>
+        <v>0.1740586538629362</v>
       </c>
       <c r="C92">
-        <v>0.2648813170391237</v>
+        <v>-0.2766865829367458</v>
       </c>
       <c r="D92">
-        <v>-0.06362266661145147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.06205465167115779</v>
+      </c>
+      <c r="E92">
+        <v>-0.08490354545838029</v>
+      </c>
+      <c r="F92">
+        <v>0.1828503726891173</v>
+      </c>
+      <c r="G92">
+        <v>-0.06148717297179982</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1773902964492547</v>
+        <v>0.1847750413315729</v>
       </c>
       <c r="C93">
-        <v>0.2207400434499687</v>
+        <v>-0.2276349772971467</v>
       </c>
       <c r="D93">
-        <v>-0.03488185831967219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.03464319196469526</v>
+      </c>
+      <c r="E93">
+        <v>-0.06451745409442751</v>
+      </c>
+      <c r="F93">
+        <v>0.09622076783703913</v>
+      </c>
+      <c r="G93">
+        <v>-0.0691283832835954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1190324474287275</v>
+        <v>0.113247563562388</v>
       </c>
       <c r="C94">
-        <v>-0.03230766360338307</v>
+        <v>0.032458475629209</v>
       </c>
       <c r="D94">
-        <v>0.05337760848068185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.05355534142558001</v>
+      </c>
+      <c r="E94">
+        <v>0.0543092137094477</v>
+      </c>
+      <c r="F94">
+        <v>-0.05891863592866148</v>
+      </c>
+      <c r="G94">
+        <v>-0.03713365581726038</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1180749475430256</v>
+        <v>0.1211493717438905</v>
       </c>
       <c r="C95">
-        <v>-0.1009622152846481</v>
+        <v>0.1094638039972979</v>
       </c>
       <c r="D95">
-        <v>0.009450823769244407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0153910386111604</v>
+      </c>
+      <c r="E95">
+        <v>0.04825477305658516</v>
+      </c>
+      <c r="F95">
+        <v>0.06438256908461791</v>
+      </c>
+      <c r="G95">
+        <v>-0.008648806965976181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1118187696105669</v>
+        <v>0.1108668552802051</v>
       </c>
       <c r="C96">
-        <v>-0.1043302476145885</v>
+        <v>0.1116966327478985</v>
       </c>
       <c r="D96">
-        <v>-0.02658243301223477</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.002127197332432626</v>
+      </c>
+      <c r="E96">
+        <v>0.02217255553281566</v>
+      </c>
+      <c r="F96">
+        <v>-0.07855740775735838</v>
+      </c>
+      <c r="G96">
+        <v>-0.08731148571547839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1905793759272091</v>
+        <v>0.1952058816741423</v>
       </c>
       <c r="C97">
-        <v>0.001459167793228308</v>
+        <v>-0.004039584479287955</v>
       </c>
       <c r="D97">
-        <v>-0.1112765231905754</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1541317194379787</v>
+      </c>
+      <c r="E97">
+        <v>0.09251918328188244</v>
+      </c>
+      <c r="F97">
+        <v>-0.2983279056678775</v>
+      </c>
+      <c r="G97">
+        <v>0.8207426468358823</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1990132886114143</v>
+        <v>0.2041859188513315</v>
       </c>
       <c r="C98">
-        <v>-0.02768385992077096</v>
+        <v>0.03266483936388968</v>
       </c>
       <c r="D98">
-        <v>-0.1143552822370267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1020174626825934</v>
+      </c>
+      <c r="E98">
+        <v>-0.02077606804870283</v>
+      </c>
+      <c r="F98">
+        <v>-0.1016732848773204</v>
+      </c>
+      <c r="G98">
+        <v>-0.0112301947133923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05400068102136556</v>
+        <v>0.05359367986582074</v>
       </c>
       <c r="C99">
-        <v>-0.05254452495018172</v>
+        <v>0.05396517607366289</v>
       </c>
       <c r="D99">
-        <v>0.00861142262956003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.006675753242592373</v>
+      </c>
+      <c r="E99">
+        <v>0.008286180160632968</v>
+      </c>
+      <c r="F99">
+        <v>0.0337456154353012</v>
+      </c>
+      <c r="G99">
+        <v>0.009912722857371676</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1165090439195893</v>
+        <v>0.1088496118363434</v>
       </c>
       <c r="C100">
-        <v>-0.4162022400530622</v>
+        <v>0.3805632472144381</v>
       </c>
       <c r="D100">
-        <v>-0.4308178439006894</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.4824890309021924</v>
+      </c>
+      <c r="E100">
+        <v>-0.7088179200820787</v>
+      </c>
+      <c r="F100">
+        <v>-0.02424255670138274</v>
+      </c>
+      <c r="G100">
+        <v>0.03040041669288478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02407670132461425</v>
+        <v>0.02671702377155715</v>
       </c>
       <c r="C101">
-        <v>-0.04635302264137915</v>
+        <v>0.04399589321168923</v>
       </c>
       <c r="D101">
-        <v>0.009619814676835011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007345255085929522</v>
+      </c>
+      <c r="E101">
+        <v>0.03079366394709718</v>
+      </c>
+      <c r="F101">
+        <v>0.06855159222032238</v>
+      </c>
+      <c r="G101">
+        <v>-0.00410729093860645</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
